--- a/Données Mémoire.xlsx
+++ b/Données Mémoire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leong\Desktop\MEMOIRE\Données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1210028F-EBA6-4DF2-BD3A-B1C4C142185C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5544CCA0-0D53-4463-A4D3-203B8143456A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D5F0F1D-FAE6-436F-97BB-6C6AC7C5D329}"/>
+    <workbookView xWindow="-420" yWindow="420" windowWidth="29100" windowHeight="13320" xr2:uid="{2D5F0F1D-FAE6-436F-97BB-6C6AC7C5D329}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,94 +36,94 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t>Rouen PIECES</t>
-  </si>
-  <si>
-    <t>Rouen AUNES MILLE</t>
-  </si>
-  <si>
-    <t>Rouen VALEURS (millions lt)</t>
-  </si>
-  <si>
-    <t>Alençon PIECES</t>
-  </si>
-  <si>
-    <t>Alençon VALEURS PRODUITES (millions l.t)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alençon AUNES </t>
-  </si>
-  <si>
-    <t>Amiens  PIECES</t>
-  </si>
-  <si>
-    <t>Amiens AUNAGE</t>
-  </si>
-  <si>
-    <t>Amiens VALEUR</t>
-  </si>
-  <si>
-    <t>Chalons PIECES</t>
-  </si>
-  <si>
-    <t>Chalons VALEUR</t>
-  </si>
-  <si>
-    <t>Gévaudan PIECES</t>
-  </si>
-  <si>
-    <t>Gevaudan VALEUR</t>
-  </si>
-  <si>
-    <t>Nimes PIECES</t>
-  </si>
-  <si>
-    <t>Nimes VALEUR</t>
-  </si>
-  <si>
-    <t>Montpellier PIECES</t>
-  </si>
-  <si>
-    <t>Montpellier VALEUR</t>
-  </si>
-  <si>
-    <t>Toulouse PIECES</t>
-  </si>
-  <si>
-    <t>Montauban PIECES</t>
-  </si>
-  <si>
-    <t>Montauban VALEUR</t>
-  </si>
-  <si>
-    <t>Orléans PIECES</t>
-  </si>
-  <si>
-    <t>Orléans VALEUR</t>
-  </si>
-  <si>
-    <t>Maine PIECES</t>
-  </si>
-  <si>
-    <t>Maine VALEURS</t>
-  </si>
-  <si>
-    <t>Bourgogne pièces</t>
-  </si>
-  <si>
-    <t>Bourgogne aunage</t>
-  </si>
-  <si>
-    <t>Bourgogne VALEURS</t>
-  </si>
-  <si>
-    <t>LIMOGES pièces</t>
-  </si>
-  <si>
-    <t>LIMOGESAunage total</t>
-  </si>
-  <si>
-    <t>LIMOGES Valeur</t>
+    <t>PiecesROUEN</t>
+  </si>
+  <si>
+    <t>AunesROUEN</t>
+  </si>
+  <si>
+    <t>ValeursROUEN</t>
+  </si>
+  <si>
+    <t>PiecesALENCON</t>
+  </si>
+  <si>
+    <t>AunesALENCON</t>
+  </si>
+  <si>
+    <t>ValeursALENCON</t>
+  </si>
+  <si>
+    <t>PiecesAMIENS</t>
+  </si>
+  <si>
+    <t>AunageAMIENS</t>
+  </si>
+  <si>
+    <t>ValeursAMIENS</t>
+  </si>
+  <si>
+    <t>PiecesCHALONS</t>
+  </si>
+  <si>
+    <t>ValeursCHALONS</t>
+  </si>
+  <si>
+    <t>PiecesGEVAUDAN</t>
+  </si>
+  <si>
+    <t>ValeursGEVAUDAN</t>
+  </si>
+  <si>
+    <t>PiecesNIMES</t>
+  </si>
+  <si>
+    <t>ValeursNIMES</t>
+  </si>
+  <si>
+    <t>PiecesMONTPELLIER</t>
+  </si>
+  <si>
+    <t>ValeursMONTPELLIER</t>
+  </si>
+  <si>
+    <t>PiecesTOULOUSE</t>
+  </si>
+  <si>
+    <t>PiecesMONTAUBAN</t>
+  </si>
+  <si>
+    <t>ValeursMONTAUBAN</t>
+  </si>
+  <si>
+    <t>PiecesORLEANS</t>
+  </si>
+  <si>
+    <t>ValeursORLEANS</t>
+  </si>
+  <si>
+    <t>PiecesMAINE</t>
+  </si>
+  <si>
+    <t>ValeursMAINE</t>
+  </si>
+  <si>
+    <t>PiecesBourgogne</t>
+  </si>
+  <si>
+    <t>AunageBOURGOGNE</t>
+  </si>
+  <si>
+    <t>ValeursBOURGOGNE</t>
+  </si>
+  <si>
+    <t>PiecesLIMOGES</t>
+  </si>
+  <si>
+    <t>AunageLIMOGES</t>
+  </si>
+  <si>
+    <t>ValeursLIMOGES</t>
   </si>
 </sst>
 </file>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB79276-6244-412D-BC04-AB444819FE95}">
   <dimension ref="A1:AE99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,8 +497,16 @@
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" customWidth="1"/>
     <col min="13" max="13" width="24.85546875" customWidth="1"/>
-    <col min="14" max="14" width="78.85546875" customWidth="1"/>
-    <col min="15" max="22" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="37.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="18" max="18" width="34" customWidth="1"/>
+    <col min="19" max="19" width="56" customWidth="1"/>
+    <col min="20" max="20" width="26" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" customWidth="1"/>
+    <col min="23" max="23" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -515,10 +523,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
